--- a/Q_AND_A/src/main/resources/templates/documents/Q&A.xlsx
+++ b/Q_AND_A/src/main/resources/templates/documents/Q&A.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mango\git\QNA\Q_AND_A\src\main\resources\templates\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6615" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table Name" sheetId="1" r:id="rId1"/>
@@ -14,9 +19,9 @@
     <sheet name="q&amp;a_likes" sheetId="5" r:id="rId5"/>
     <sheet name="q&amp;a_teach_category" sheetId="6" r:id="rId6"/>
     <sheet name="q&amp;a_user_follow" sheetId="7" r:id="rId7"/>
+    <sheet name="error_cd" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -817,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2154,4 +2159,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Q_AND_A/src/main/resources/templates/documents/Q&A.xlsx
+++ b/Q_AND_A/src/main/resources/templates/documents/Q&A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6615" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table Name" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>int(9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,26 @@
   </si>
   <si>
     <t>follower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +340,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +457,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +529,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1172,23 +1215,23 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -1266,6 +1309,9 @@
     </row>
     <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1284,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,17 +1434,17 @@
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1408,16 +1454,18 @@
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1426,14 +1474,14 @@
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1442,47 +1490,53 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
@@ -1496,12 +1550,24 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -1520,7 +1586,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1719,7 +1785,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="15"/>
     </row>
   </sheetData>
@@ -1965,7 +2031,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2093,7 +2159,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2111,7 +2177,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2165,7 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
